--- a/ConceptMap-R5-DataType-elements-for-R4.xlsx
+++ b/ConceptMap-R5-DataType-elements-for-R4.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:32.0525984-06:00</t>
+    <t>2026-02-09T22:05:43.7413256-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>DataType</t>
-  </si>
-  <si>
-    <t>#DataType</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DataType</t>
@@ -371,7 +368,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,19 +419,6 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ConceptMap-R5-DataType-elements-for-R4.xlsx
+++ b/ConceptMap-R5-DataType-elements-for-R4.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.7413256-06:00</t>
+    <t>2026-02-17T14:42:27.1583194-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
